--- a/Code/Results/Cases/Case_2_95/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_95/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.364258490435247</v>
+        <v>3.051075584974058</v>
       </c>
       <c r="C2">
-        <v>0.8306244129121865</v>
+        <v>0.2783106572209419</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07149294522464089</v>
+        <v>0.05862765134340364</v>
       </c>
       <c r="F2">
-        <v>6.886674237876917</v>
+        <v>5.417902485252796</v>
       </c>
       <c r="G2">
-        <v>0.000823834803493241</v>
+        <v>0.002623760195559696</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7327071110453289</v>
+        <v>0.4517536715624857</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.003111002486086534</v>
+        <v>0.2024051700630132</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.93184330393251</v>
+        <v>2.985091104960077</v>
       </c>
       <c r="C3">
-        <v>0.7097033424578569</v>
+        <v>0.2485110799969732</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06169176230219975</v>
+        <v>0.05615965390098765</v>
       </c>
       <c r="F3">
-        <v>6.155552378148002</v>
+        <v>5.23523230278812</v>
       </c>
       <c r="G3">
-        <v>0.0008368960102827577</v>
+        <v>0.002631185017938073</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6567250829437938</v>
+        <v>0.4305263055731672</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.003839488147179715</v>
+        <v>0.2084857178523496</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.676015939050103</v>
+        <v>2.947370597803626</v>
       </c>
       <c r="C4">
-        <v>0.6375412240211062</v>
+        <v>0.2303859189991329</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05583769614597855</v>
+        <v>0.05465100543669621</v>
       </c>
       <c r="F4">
-        <v>5.719638616958633</v>
+        <v>5.12441255153999</v>
       </c>
       <c r="G4">
-        <v>0.0008450616598573849</v>
+        <v>0.002635976299273025</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6113383639009271</v>
+        <v>0.417477768135754</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.004598407086250589</v>
+        <v>0.2124648846378783</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.573884629555096</v>
+        <v>2.932698722719124</v>
       </c>
       <c r="C5">
-        <v>0.6085746361273721</v>
+        <v>0.223041678989631</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05348647680859386</v>
+        <v>0.05403776133578475</v>
       </c>
       <c r="F5">
-        <v>5.544793023637908</v>
+        <v>5.079580995447969</v>
       </c>
       <c r="G5">
-        <v>0.000848430469166429</v>
+        <v>0.002637987462241248</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5931082969080279</v>
+        <v>0.412155401612722</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.004979409559713766</v>
+        <v>0.2141482258801446</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.557045429830112</v>
+        <v>2.930304630936575</v>
       </c>
       <c r="C6">
-        <v>0.6037890718961592</v>
+        <v>0.2218246667767403</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05309794845498672</v>
+        <v>0.05393602154739696</v>
       </c>
       <c r="F6">
-        <v>5.515915840395877</v>
+        <v>5.072156331953266</v>
       </c>
       <c r="G6">
-        <v>0.0008489924710308738</v>
+        <v>0.002638324965122759</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.590095799126928</v>
+        <v>0.4112712895256863</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.005046830461951757</v>
+        <v>0.2144314765049842</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.674630361326251</v>
+        <v>2.947169899356311</v>
       </c>
       <c r="C7">
-        <v>0.6371488922701189</v>
+        <v>0.2302867040405374</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05580585613942901</v>
+        <v>0.05464272895875411</v>
       </c>
       <c r="F7">
-        <v>5.717269869437672</v>
+        <v>5.123806619247091</v>
       </c>
       <c r="G7">
-        <v>0.0008451069203225806</v>
+        <v>0.002636003184531047</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6110914980547193</v>
+        <v>0.4174060106546023</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.004603263069130392</v>
+        <v>0.212487336516693</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.212952205303395</v>
+        <v>3.027742268802626</v>
       </c>
       <c r="C8">
-        <v>0.7884443787818327</v>
+        <v>0.2679992784846945</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06807508956966757</v>
+        <v>0.05777520433459671</v>
       </c>
       <c r="F8">
-        <v>6.631581261869513</v>
+        <v>5.354634279982776</v>
       </c>
       <c r="G8">
-        <v>0.0008283108964823784</v>
+        <v>0.002626272179847353</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.7062116477476792</v>
+        <v>0.4444367991465015</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.003293224698756703</v>
+        <v>0.2044507614146163</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.361924435709966</v>
+        <v>3.20807374372788</v>
       </c>
       <c r="C9">
-        <v>1.106110781715188</v>
+        <v>0.3433812676564116</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0937954932788152</v>
+        <v>0.06397807912155784</v>
       </c>
       <c r="F9">
-        <v>8.552600199888559</v>
+        <v>5.818340535961795</v>
       </c>
       <c r="G9">
-        <v>0.0007962955661494086</v>
+        <v>0.002609023003173602</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.905574829385742</v>
+        <v>0.4973848282710236</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.003552312815303438</v>
+        <v>0.1906397055455553</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.290766511855338</v>
+        <v>3.354422489704007</v>
       </c>
       <c r="C10">
-        <v>1.359768666616162</v>
+        <v>0.3997296483887567</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1143061892477277</v>
+        <v>0.06858186354721596</v>
       </c>
       <c r="F10">
-        <v>10.08352863736431</v>
+        <v>6.166380946119659</v>
       </c>
       <c r="G10">
-        <v>0.000772941130987559</v>
+        <v>0.002597452514639518</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.06450928590894</v>
+        <v>0.5363340094449995</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.006075340195833334</v>
+        <v>0.1816797505884438</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.739691319069095</v>
+        <v>3.424066636448742</v>
       </c>
       <c r="C11">
-        <v>1.481720185568008</v>
+        <v>0.4255948421402422</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1241591979353984</v>
+        <v>0.07068852839419648</v>
       </c>
       <c r="F11">
-        <v>10.81771129569717</v>
+        <v>6.326448073035067</v>
       </c>
       <c r="G11">
-        <v>0.0007622408548742752</v>
+        <v>0.002592424937138902</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.14083759613186</v>
+        <v>0.5540820576827343</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.00790882112137048</v>
+        <v>0.1778612882811537</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.914334031471924</v>
+        <v>3.450884849771853</v>
       </c>
       <c r="C12">
-        <v>1.529074339904014</v>
+        <v>0.4354243426730591</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.127983685185157</v>
+        <v>0.07148821928610261</v>
       </c>
       <c r="F12">
-        <v>11.10239897531653</v>
+        <v>6.387322485462562</v>
       </c>
       <c r="G12">
-        <v>0.0007581661190680846</v>
+        <v>0.002590554793916519</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.170460126243455</v>
+        <v>0.5608085420985844</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.008721250812682158</v>
+        <v>0.1764523677585821</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.876499393155086</v>
+        <v>3.4450891874435</v>
       </c>
       <c r="C13">
-        <v>1.518819327588176</v>
+        <v>0.4333058060983035</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1271555262393029</v>
+        <v>0.07131590253703379</v>
       </c>
       <c r="F13">
-        <v>11.04076711615619</v>
+        <v>6.374200346144391</v>
       </c>
       <c r="G13">
-        <v>0.0007590449158249922</v>
+        <v>0.002590956067998146</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.164045866747159</v>
+        <v>0.5593595982432475</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.008540663416113148</v>
+        <v>0.1767541558135388</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.753960634364262</v>
+        <v>3.426264034693816</v>
       </c>
       <c r="C14">
-        <v>1.485591007069559</v>
+        <v>0.4264028123699859</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1244718505528439</v>
+        <v>0.0707542795737055</v>
       </c>
       <c r="F14">
-        <v>10.84099100183494</v>
+        <v>6.331450969557181</v>
       </c>
       <c r="G14">
-        <v>0.0007619061573330286</v>
+        <v>0.002592270405622835</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.143259347545012</v>
+        <v>0.5546353276727132</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.007973163940345529</v>
+        <v>0.1777446328774559</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.679535475296518</v>
+        <v>3.414791225195586</v>
       </c>
       <c r="C15">
-        <v>1.465398294834358</v>
+        <v>0.4221791226017899</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1228407910373903</v>
+        <v>0.07041052713755391</v>
       </c>
       <c r="F15">
-        <v>10.7195322033877</v>
+        <v>6.30529996212374</v>
       </c>
       <c r="G15">
-        <v>0.0007636553895072511</v>
+        <v>0.002593079856131553</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.130625255200243</v>
+        <v>0.5517423572547386</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.007641597706163239</v>
+        <v>0.1783561542895917</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.262027687341515</v>
+        <v>3.349933192869571</v>
       </c>
       <c r="C16">
-        <v>1.351949404820743</v>
+        <v>0.3980440976989712</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1136742560356545</v>
+        <v>0.06844445099780216</v>
       </c>
       <c r="F16">
-        <v>10.03640785606669</v>
+        <v>6.155956082798497</v>
       </c>
       <c r="G16">
-        <v>0.000773637932582939</v>
+        <v>0.002597785805525943</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.059613354204316</v>
+        <v>0.5351748520901936</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.005970882760760077</v>
+        <v>0.1819344789700246</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.013207429319039</v>
+        <v>3.310933911116479</v>
       </c>
       <c r="C17">
-        <v>1.284181007072561</v>
+        <v>0.3832985607231194</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1081964977346459</v>
+        <v>0.06724161269464801</v>
       </c>
       <c r="F17">
-        <v>9.627805841855718</v>
+        <v>6.06479162238378</v>
       </c>
       <c r="G17">
-        <v>0.0007797347386583497</v>
+        <v>0.002600733007965187</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.017171744433853</v>
+        <v>0.525019856949541</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.005134099265355019</v>
+        <v>0.1841956245967644</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.872516118676856</v>
+        <v>3.288791204233576</v>
       </c>
       <c r="C18">
-        <v>1.24580359400727</v>
+        <v>0.3748390632924838</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1050937318300917</v>
+        <v>0.06655092736295742</v>
       </c>
       <c r="F18">
-        <v>9.39625485961173</v>
+        <v>6.012519573638997</v>
       </c>
       <c r="G18">
-        <v>0.0007832351224424385</v>
+        <v>0.002602450378224333</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9931297366200909</v>
+        <v>0.5191816997545118</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.004715947718713309</v>
+        <v>0.185520407876993</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.825273750488236</v>
+        <v>3.281343516770733</v>
       </c>
       <c r="C19">
-        <v>1.232906706493793</v>
+        <v>0.3719785110448015</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1040509220035482</v>
+        <v>0.06631726671508176</v>
       </c>
       <c r="F19">
-        <v>9.318417349231538</v>
+        <v>5.994848907824007</v>
       </c>
       <c r="G19">
-        <v>0.0007844195233467684</v>
+        <v>0.002603035673214822</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9850491732233309</v>
+        <v>0.5172054264834003</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.004584690925156565</v>
+        <v>0.1859731179440036</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.039438378765567</v>
+        <v>3.315055547881855</v>
       </c>
       <c r="C20">
-        <v>1.291331343087109</v>
+        <v>0.3848659866400226</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1087745379371192</v>
+        <v>0.06736953613165753</v>
       </c>
       <c r="F20">
-        <v>9.670935345754003</v>
+        <v>6.074479258161261</v>
       </c>
       <c r="G20">
-        <v>0.0007790864568294882</v>
+        <v>0.002600416975569242</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.021650591070198</v>
+        <v>0.526100581240371</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.005216514097654112</v>
+        <v>0.1839524136889388</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.789819445566309</v>
+        <v>3.431781314478599</v>
       </c>
       <c r="C21">
-        <v>1.495317014095463</v>
+        <v>0.4284294289313948</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1252574115337808</v>
+        <v>0.07091918782480988</v>
       </c>
       <c r="F21">
-        <v>10.89947787147617</v>
+        <v>6.344000348184068</v>
       </c>
       <c r="G21">
-        <v>0.0007610664667751346</v>
+        <v>0.002591883440420457</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.149344082863166</v>
+        <v>0.5560227950467436</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.008136467076782949</v>
+        <v>0.1774527000488568</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.307855605077407</v>
+        <v>3.510667002216337</v>
       </c>
       <c r="C22">
-        <v>1.635623683982146</v>
+        <v>0.4571048993173008</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1365858108815203</v>
+        <v>0.07325049050599119</v>
       </c>
       <c r="F22">
-        <v>11.74205924254619</v>
+        <v>6.521670923548868</v>
       </c>
       <c r="G22">
-        <v>0.000749149074936824</v>
+        <v>0.002586502551302602</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.237076945975389</v>
+        <v>0.5756124784205667</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.01074615680913737</v>
+        <v>0.1734207225837316</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.028508361303807</v>
+        <v>3.468325050912654</v>
       </c>
       <c r="C23">
-        <v>1.560008914661353</v>
+        <v>0.4417810527197616</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1304816090075143</v>
+        <v>0.07200513305719625</v>
       </c>
       <c r="F23">
-        <v>11.28824427958324</v>
+        <v>6.426702091572338</v>
       </c>
       <c r="G23">
-        <v>0.0007555270794273938</v>
+        <v>0.002589356550576633</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.18980622637315</v>
+        <v>0.5651535406200026</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.009281380561745323</v>
+        <v>0.1755528947348939</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.027572080991092</v>
+        <v>3.313191288745145</v>
       </c>
       <c r="C24">
-        <v>1.28809687522903</v>
+        <v>0.3841572977194687</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1085130625364314</v>
+        <v>0.06731169933401304</v>
       </c>
       <c r="F24">
-        <v>9.651426122028141</v>
+        <v>6.070099043913672</v>
       </c>
       <c r="G24">
-        <v>0.0007793795587269745</v>
+        <v>0.002600559782152321</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.019624598775152</v>
+        <v>0.5256119856289843</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.005179059758955162</v>
+        <v>0.1840622920315536</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.038535472708645</v>
+        <v>3.156873789222402</v>
       </c>
       <c r="C25">
-        <v>1.017237135729033</v>
+        <v>0.3228259009127044</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08660389297478233</v>
+        <v>0.06229258702646945</v>
       </c>
       <c r="F25">
-        <v>8.015347627713709</v>
+        <v>5.691649149469583</v>
       </c>
       <c r="G25">
-        <v>0.0008048945679744282</v>
+        <v>0.002613494661206763</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8498371699384961</v>
+        <v>0.4830586613980898</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.003123819138465933</v>
+        <v>0.1941674590181623</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_95/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_95/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.051075584974058</v>
+        <v>3.364258490435361</v>
       </c>
       <c r="C2">
-        <v>0.2783106572209419</v>
+        <v>0.8306244129120728</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05862765134340364</v>
+        <v>0.07149294522470484</v>
       </c>
       <c r="F2">
-        <v>5.417902485252796</v>
+        <v>6.886674237877031</v>
       </c>
       <c r="G2">
-        <v>0.002623760195559696</v>
+        <v>0.0008238348035884955</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4517536715624857</v>
+        <v>0.7327071110452863</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2024051700630132</v>
+        <v>0.003111002486086534</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.985091104960077</v>
+        <v>2.931843303932737</v>
       </c>
       <c r="C3">
-        <v>0.2485110799969732</v>
+        <v>0.7097033424574875</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05615965390098765</v>
+        <v>0.06169176230217488</v>
       </c>
       <c r="F3">
-        <v>5.23523230278812</v>
+        <v>6.155552378148002</v>
       </c>
       <c r="G3">
-        <v>0.002631185017938073</v>
+        <v>0.0008368960103955563</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4305263055731672</v>
+        <v>0.6567250829439217</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2084857178523496</v>
+        <v>0.003839488147454162</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.947370597803626</v>
+        <v>2.676015939049762</v>
       </c>
       <c r="C4">
-        <v>0.2303859189991329</v>
+        <v>0.6375412240206231</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05465100543669621</v>
+        <v>0.05583769614598566</v>
       </c>
       <c r="F4">
-        <v>5.12441255153999</v>
+        <v>5.719638616958662</v>
       </c>
       <c r="G4">
-        <v>0.002635976299273025</v>
+        <v>0.0008450616597422318</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.417477768135754</v>
+        <v>0.6113383639010266</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2124648846378783</v>
+        <v>0.004598407086257694</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.932698722719124</v>
+        <v>2.573884629554925</v>
       </c>
       <c r="C5">
-        <v>0.223041678989631</v>
+        <v>0.608574636127571</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05403776133578475</v>
+        <v>0.05348647680860807</v>
       </c>
       <c r="F5">
-        <v>5.079580995447969</v>
+        <v>5.544793023637851</v>
       </c>
       <c r="G5">
-        <v>0.002637987462241248</v>
+        <v>0.0008484304694214438</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.412155401612722</v>
+        <v>0.59310829690817</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2141482258801446</v>
+        <v>0.004979409559503267</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.930304630936575</v>
+        <v>2.557045429829884</v>
       </c>
       <c r="C6">
-        <v>0.2218246667767403</v>
+        <v>0.603789071895676</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05393602154739696</v>
+        <v>0.05309794845494764</v>
       </c>
       <c r="F6">
-        <v>5.072156331953266</v>
+        <v>5.515915840395877</v>
       </c>
       <c r="G6">
-        <v>0.002638324965122759</v>
+        <v>0.0008489924710271291</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4112712895256863</v>
+        <v>0.5900957991269848</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2144314765049842</v>
+        <v>0.005046830462128504</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.947169899356311</v>
+        <v>2.674630361326194</v>
       </c>
       <c r="C7">
-        <v>0.2302867040405374</v>
+        <v>0.6371488922709148</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05464272895875411</v>
+        <v>0.05580585613937572</v>
       </c>
       <c r="F7">
-        <v>5.123806619247091</v>
+        <v>5.7172698694377</v>
       </c>
       <c r="G7">
-        <v>0.002636003184531047</v>
+        <v>0.0008451069203198302</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4174060106546023</v>
+        <v>0.6110914980547051</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.212487336516693</v>
+        <v>0.004603263069317798</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.027742268802626</v>
+        <v>3.212952205302884</v>
       </c>
       <c r="C8">
-        <v>0.2679992784846945</v>
+        <v>0.7884443787813495</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05777520433459671</v>
+        <v>0.06807508956953612</v>
       </c>
       <c r="F8">
-        <v>5.354634279982776</v>
+        <v>6.631581261869513</v>
       </c>
       <c r="G8">
-        <v>0.002626272179847353</v>
+        <v>0.0008283108964701746</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4444367991465015</v>
+        <v>0.7062116477476934</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2044507614146163</v>
+        <v>0.003293224698866837</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.20807374372788</v>
+        <v>4.361924435710193</v>
       </c>
       <c r="C9">
-        <v>0.3433812676564116</v>
+        <v>1.106110781715643</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06397807912155784</v>
+        <v>0.09379549327877612</v>
       </c>
       <c r="F9">
-        <v>5.818340535961795</v>
+        <v>8.552600199888673</v>
       </c>
       <c r="G9">
-        <v>0.002609023003173602</v>
+        <v>0.0007962955661296881</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4973848282710236</v>
+        <v>0.905574829385813</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1906397055455553</v>
+        <v>0.003552312815072511</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.354422489704007</v>
+        <v>5.29076651185494</v>
       </c>
       <c r="C10">
-        <v>0.3997296483887567</v>
+        <v>1.359768666617413</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06858186354721596</v>
+        <v>0.1143061892477704</v>
       </c>
       <c r="F10">
-        <v>6.166380946119659</v>
+        <v>10.08352863736414</v>
       </c>
       <c r="G10">
-        <v>0.002597452514639518</v>
+        <v>0.0007729411309367176</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5363340094449995</v>
+        <v>1.064509285909025</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1816797505884438</v>
+        <v>0.006075340195748069</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.424066636448742</v>
+        <v>5.739691319068925</v>
       </c>
       <c r="C11">
-        <v>0.4255948421402422</v>
+        <v>1.48172018556744</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07068852839419648</v>
+        <v>0.1241591979354482</v>
       </c>
       <c r="F11">
-        <v>6.326448073035067</v>
+        <v>10.81771129569728</v>
       </c>
       <c r="G11">
-        <v>0.002592424937138902</v>
+        <v>0.0007622408548262264</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5540820576827343</v>
+        <v>1.140837596131774</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1778612882811537</v>
+        <v>0.007908821121409559</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.450884849771853</v>
+        <v>5.91433403147164</v>
       </c>
       <c r="C12">
-        <v>0.4354243426730591</v>
+        <v>1.529074339903957</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07148821928610261</v>
+        <v>0.127983685185086</v>
       </c>
       <c r="F12">
-        <v>6.387322485462562</v>
+        <v>11.1023989753167</v>
       </c>
       <c r="G12">
-        <v>0.002590554793916519</v>
+        <v>0.0007581661188140656</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5608085420985844</v>
+        <v>1.170460126243341</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1764523677585821</v>
+        <v>0.008721250812913084</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.4450891874435</v>
+        <v>5.876499393154859</v>
       </c>
       <c r="C13">
-        <v>0.4333058060983035</v>
+        <v>1.518819327587266</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07131590253703379</v>
+        <v>0.1271555262392283</v>
       </c>
       <c r="F13">
-        <v>6.374200346144391</v>
+        <v>11.04076711615596</v>
       </c>
       <c r="G13">
-        <v>0.002590956067998146</v>
+        <v>0.0007590449158522578</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5593595982432475</v>
+        <v>1.164045866747017</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1767541558135388</v>
+        <v>0.008540663416422234</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.426264034693816</v>
+        <v>5.753960634364944</v>
       </c>
       <c r="C14">
-        <v>0.4264028123699859</v>
+        <v>1.485591007069957</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0707542795737055</v>
+        <v>0.1244718505528937</v>
       </c>
       <c r="F14">
-        <v>6.331450969557181</v>
+        <v>10.84099100183499</v>
       </c>
       <c r="G14">
-        <v>0.002592270405622835</v>
+        <v>0.0007619061572234429</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5546353276727132</v>
+        <v>1.14325934754487</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1777446328774559</v>
+        <v>0.00797316394032066</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.414791225195586</v>
+        <v>5.679535475296063</v>
       </c>
       <c r="C15">
-        <v>0.4221791226017899</v>
+        <v>1.465398294834245</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07041052713755391</v>
+        <v>0.1228407910375182</v>
       </c>
       <c r="F15">
-        <v>6.30529996212374</v>
+        <v>10.7195322033877</v>
       </c>
       <c r="G15">
-        <v>0.002593079856131553</v>
+        <v>0.0007636553894999464</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5517423572547386</v>
+        <v>1.130625255200414</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1783561542895917</v>
+        <v>0.007641597706090408</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.349933192869571</v>
+        <v>5.262027687341231</v>
       </c>
       <c r="C16">
-        <v>0.3980440976989712</v>
+        <v>1.351949404820175</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06844445099780216</v>
+        <v>0.113674256035555</v>
       </c>
       <c r="F16">
-        <v>6.155956082798497</v>
+        <v>10.03640785606697</v>
       </c>
       <c r="G16">
-        <v>0.002597785805525943</v>
+        <v>0.0007736379328088772</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5351748520901936</v>
+        <v>1.059613354204544</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1819344789700246</v>
+        <v>0.005970882760841789</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.310933911116479</v>
+        <v>5.013207429319266</v>
       </c>
       <c r="C17">
-        <v>0.3832985607231194</v>
+        <v>1.284181007072903</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06724161269464801</v>
+        <v>0.1081964977346246</v>
       </c>
       <c r="F17">
-        <v>6.06479162238378</v>
+        <v>9.627805841855746</v>
       </c>
       <c r="G17">
-        <v>0.002600733007965187</v>
+        <v>0.0007797347387585312</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.525019856949541</v>
+        <v>1.017171744433767</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1841956245967644</v>
+        <v>0.005134099265227121</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.288791204233576</v>
+        <v>4.872516118677368</v>
       </c>
       <c r="C18">
-        <v>0.3748390632924838</v>
+        <v>1.245803594008294</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06655092736295742</v>
+        <v>0.1050937318301024</v>
       </c>
       <c r="F18">
-        <v>6.012519573638997</v>
+        <v>9.396254859611702</v>
       </c>
       <c r="G18">
-        <v>0.002602450378224333</v>
+        <v>0.0007832351224170951</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5191816997545118</v>
+        <v>0.9931297366200909</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.185520407876993</v>
+        <v>0.004715947718834101</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.281343516770733</v>
+        <v>4.825273750487725</v>
       </c>
       <c r="C19">
-        <v>0.3719785110448015</v>
+        <v>1.232906706493793</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06631726671508176</v>
+        <v>0.1040509220034735</v>
       </c>
       <c r="F19">
-        <v>5.994848907824007</v>
+        <v>9.318417349231623</v>
       </c>
       <c r="G19">
-        <v>0.002603035673214822</v>
+        <v>0.0007844195234468156</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5172054264834003</v>
+        <v>0.9850491732233877</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1859731179440036</v>
+        <v>0.004584690925161894</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.315055547881855</v>
+        <v>5.039438378764999</v>
       </c>
       <c r="C20">
-        <v>0.3848659866400226</v>
+        <v>1.29133134308762</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06736953613165753</v>
+        <v>0.1087745379370162</v>
       </c>
       <c r="F20">
-        <v>6.074479258161261</v>
+        <v>9.670935345753946</v>
       </c>
       <c r="G20">
-        <v>0.002600416975569242</v>
+        <v>0.0007790864569495992</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.526100581240371</v>
+        <v>1.021650591070255</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1839524136889388</v>
+        <v>0.005216514097773128</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.431781314478599</v>
+        <v>5.789819445566309</v>
       </c>
       <c r="C21">
-        <v>0.4284294289313948</v>
+        <v>1.495317014094894</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07091918782480988</v>
+        <v>0.1252574115338199</v>
       </c>
       <c r="F21">
-        <v>6.344000348184068</v>
+        <v>10.89947787147628</v>
       </c>
       <c r="G21">
-        <v>0.002591883440420457</v>
+        <v>0.0007610664667003451</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5560227950467436</v>
+        <v>1.149344082863308</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1774527000488568</v>
+        <v>0.008136467076493403</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.510667002216337</v>
+        <v>6.307855605077464</v>
       </c>
       <c r="C22">
-        <v>0.4571048993173008</v>
+        <v>1.635623683982089</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07325049050599119</v>
+        <v>0.1365858108814884</v>
       </c>
       <c r="F22">
-        <v>6.521670923548868</v>
+        <v>11.74205924254619</v>
       </c>
       <c r="G22">
-        <v>0.002586502551302602</v>
+        <v>0.0007491490750343862</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5756124784205667</v>
+        <v>1.237076945975673</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1734207225837316</v>
+        <v>0.01074615680876434</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.468325050912654</v>
+        <v>6.028508361303295</v>
       </c>
       <c r="C23">
-        <v>0.4417810527197616</v>
+        <v>1.56000891466033</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07200513305719625</v>
+        <v>0.1304816090075818</v>
       </c>
       <c r="F23">
-        <v>6.426702091572338</v>
+        <v>11.28824427958324</v>
       </c>
       <c r="G23">
-        <v>0.002589356550576633</v>
+        <v>0.0007555270794244234</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5651535406200026</v>
+        <v>1.189806226373207</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1755528947348939</v>
+        <v>0.00928138056172223</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.313191288745145</v>
+        <v>5.027572080990751</v>
       </c>
       <c r="C24">
-        <v>0.3841572977194687</v>
+        <v>1.288096875228064</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06731169933401304</v>
+        <v>0.1085130625362787</v>
       </c>
       <c r="F24">
-        <v>6.070099043913672</v>
+        <v>9.651426122028113</v>
       </c>
       <c r="G24">
-        <v>0.002600559782152321</v>
+        <v>0.0007793795590758519</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5256119856289843</v>
+        <v>1.019624598775408</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1840622920315536</v>
+        <v>0.005179059758969373</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.156873789222402</v>
+        <v>4.038535472708361</v>
       </c>
       <c r="C25">
-        <v>0.3228259009127044</v>
+        <v>1.017237135728578</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06229258702646945</v>
+        <v>0.08660389297478943</v>
       </c>
       <c r="F25">
-        <v>5.691649149469583</v>
+        <v>8.01534762771368</v>
       </c>
       <c r="G25">
-        <v>0.002613494661206763</v>
+        <v>0.0008048945677378746</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4830586613980898</v>
+        <v>0.8498371699384677</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1941674590181623</v>
+        <v>0.003123819138387773</v>
       </c>
       <c r="M25">
         <v>0</v>
